--- a/biology/Histoire de la zoologie et de la botanique/Johann_Jakob_Baier/Johann_Jakob_Baier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Jakob_Baier/Johann_Jakob_Baier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Jakob Baier (14 juin 1677, Iéna – 14 juillet 1735, Altdorf bei Nürnberg), naturaliste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baier exerça la médecine à Halle, Nuremberg, Ratisbonne, Iéna, et fut professeur de cette science à Altdorf. Le médecin Ferdinand Jakob Baier (1707-1788) est son fils.
 </t>
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir aussi une liste de ses publications disponibles sur archive.org.
-[1708] (la) Oryctographia Norica Sive Rerum Fossilium Et Ad Minerale Regnum Pertinentium in Territorio Norimbergensi Eiusque Vicinia Observatorum Succincta Descriptio Cum Supplementis (suivi de Monumenta Rerum Petrificatarum Praecipua Oryctographiae Noricae supplementi Loco Iungenda, 1757, 11 p.), Nuremberg, 1708 (réimpr. 1758), 8 pl. + 65, sur books.google.fr (lire en ligne) ; description des fossiles et des minéraux du territoire de Nuremberg.
-[1728] (la) Biographiae professorum medicinae, qui in Academia Altofina unquam vixerunt, 1728, 195 p., sur archive.org (ISBN 1236167449, lire en ligne).</t>
+ (la) Oryctographia Norica Sive Rerum Fossilium Et Ad Minerale Regnum Pertinentium in Territorio Norimbergensi Eiusque Vicinia Observatorum Succincta Descriptio Cum Supplementis (suivi de Monumenta Rerum Petrificatarum Praecipua Oryctographiae Noricae supplementi Loco Iungenda, 1757, 11 p.), Nuremberg, 1708 (réimpr. 1758), 8 pl. + 65, sur books.google.fr (lire en ligne) ; description des fossiles et des minéraux du territoire de Nuremberg.
+ (la) Biographiae professorum medicinae, qui in Academia Altofina unquam vixerunt, 1728, 195 p., sur archive.org (ISBN 1236167449, lire en ligne).</t>
         </is>
       </c>
     </row>
